--- a/.source/Card/신한카드_김찬식_2023-2024.xlsx
+++ b/.source/Card/신한카드_김찬식_2023-2024.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d251688e3d9c1650/Cursor_AI_Project/MYBCINFO/MYBCCARD/Source/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d251688e3d9c1650/Cursor/MyInfo/.source/Card/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1179EBF-88F7-4502-B84B-6D09860BBA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{E1179EBF-88F7-4502-B84B-6D09860BBA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CDB63B2-6FCA-445D-A3E5-468BA53BD605}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1C7BD37D-B9EF-40A9-8687-E92DCA45D450}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1C7BD37D-B9EF-40A9-8687-E92DCA45D450}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$1:$G$375</definedName>
+  </definedNames>
   <calcPr calcId="80000"/>
 </workbook>
 </file>
@@ -492,7 +495,7 @@
     <numFmt numFmtId="179" formatCode="0_ "/>
     <numFmt numFmtId="180" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
@@ -626,7 +629,7 @@
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -662,11 +665,11 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -674,11 +677,11 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -690,11 +693,11 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -713,6 +716,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1034,25 +1041,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E3CAA0-1135-4F7F-BEE5-D02542679F89}">
   <dimension ref="A1:K375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A312" workbookViewId="0">
-      <selection activeCell="P336" sqref="P336"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J382" sqref="J382"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="6.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.09765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" customWidth="1"/>
-    <col min="8" max="8" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.296875" customWidth="1"/>
+    <col min="8" max="8" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="17"/>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -1065,7 +1072,7 @@
       <c r="J1" s="17"/>
       <c r="K1" s="17"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -1074,13 +1081,13 @@
       <c r="J3" s="13"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -1088,7 +1095,7 @@
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
     </row>
-    <row r="6" spans="1:11" ht="25.5">
+    <row r="6" spans="1:11" ht="25.8" x14ac:dyDescent="0.25">
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
@@ -1097,7 +1104,7 @@
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="15"/>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
@@ -1109,13 +1116,13 @@
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
     </row>
-    <row r="11" spans="1:11" ht="24">
+    <row r="11" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>1</v>
       </c>
@@ -1150,7 +1157,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>44927</v>
       </c>
@@ -1185,7 +1192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>44930</v>
       </c>
@@ -1220,7 +1227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>44932</v>
       </c>
@@ -1255,7 +1262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>44932</v>
       </c>
@@ -1290,7 +1297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>44933</v>
       </c>
@@ -1325,7 +1332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>44934</v>
       </c>
@@ -1360,7 +1367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>44937</v>
       </c>
@@ -1395,7 +1402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>44937</v>
       </c>
@@ -1430,7 +1437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>44937</v>
       </c>
@@ -1465,7 +1472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>44940</v>
       </c>
@@ -1500,7 +1507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>44940</v>
       </c>
@@ -1535,7 +1542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>44947</v>
       </c>
@@ -1570,7 +1577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>44954</v>
       </c>
@@ -1605,7 +1612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>44952</v>
       </c>
@@ -1640,7 +1647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>44952</v>
       </c>
@@ -1675,7 +1682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>44956</v>
       </c>
@@ -1710,7 +1717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>44957</v>
       </c>
@@ -1745,7 +1752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>44959</v>
       </c>
@@ -1780,7 +1787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>44959</v>
       </c>
@@ -1815,7 +1822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>44960</v>
       </c>
@@ -1850,7 +1857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>44963</v>
       </c>
@@ -1885,7 +1892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>44966</v>
       </c>
@@ -1920,7 +1927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>44966</v>
       </c>
@@ -1955,7 +1962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>44967</v>
       </c>
@@ -1990,7 +1997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>44974</v>
       </c>
@@ -2025,7 +2032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>44992</v>
       </c>
@@ -2060,7 +2067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>44994</v>
       </c>
@@ -2095,7 +2102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>44994</v>
       </c>
@@ -2130,7 +2137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>45005</v>
       </c>
@@ -2165,7 +2172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>45016</v>
       </c>
@@ -2200,7 +2207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>45016</v>
       </c>
@@ -2235,7 +2242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>45019</v>
       </c>
@@ -2270,7 +2277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>45017</v>
       </c>
@@ -2305,7 +2312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>45017</v>
       </c>
@@ -2340,7 +2347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>45019</v>
       </c>
@@ -2375,7 +2382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>45026</v>
       </c>
@@ -2410,7 +2417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>45026</v>
       </c>
@@ -2445,7 +2452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>45029</v>
       </c>
@@ -2480,7 +2487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>45030</v>
       </c>
@@ -2515,7 +2522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>45030</v>
       </c>
@@ -2550,12 +2557,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G52" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>45030</v>
       </c>
@@ -2590,7 +2597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>45030</v>
       </c>
@@ -2625,7 +2632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>45030</v>
       </c>
@@ -2660,7 +2667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>45050</v>
       </c>
@@ -2695,7 +2702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>45055</v>
       </c>
@@ -2730,7 +2737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>45061</v>
       </c>
@@ -2765,7 +2772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>45069</v>
       </c>
@@ -2800,7 +2807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>45070</v>
       </c>
@@ -2835,7 +2842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>45088</v>
       </c>
@@ -2870,7 +2877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>45097</v>
       </c>
@@ -2905,7 +2912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>45097</v>
       </c>
@@ -2940,7 +2947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>45106</v>
       </c>
@@ -2975,7 +2982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>45106</v>
       </c>
@@ -3010,7 +3017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>45106</v>
       </c>
@@ -3045,7 +3052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>45109</v>
       </c>
@@ -3080,7 +3087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>45114</v>
       </c>
@@ -3115,7 +3122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>45117</v>
       </c>
@@ -3150,7 +3157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>45120</v>
       </c>
@@ -3185,7 +3192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>45120</v>
       </c>
@@ -3220,7 +3227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>45120</v>
       </c>
@@ -3255,7 +3262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>45121</v>
       </c>
@@ -3290,7 +3297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>45122</v>
       </c>
@@ -3325,7 +3332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>45124</v>
       </c>
@@ -3360,7 +3367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>45126</v>
       </c>
@@ -3395,7 +3402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>45126</v>
       </c>
@@ -3430,7 +3437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>45127</v>
       </c>
@@ -3465,7 +3472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>45131</v>
       </c>
@@ -3500,7 +3507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>45132</v>
       </c>
@@ -3535,7 +3542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>45134</v>
       </c>
@@ -3566,7 +3573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>45134</v>
       </c>
@@ -3595,7 +3602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>45134</v>
       </c>
@@ -3630,7 +3637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>45135</v>
       </c>
@@ -3665,7 +3672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>45137</v>
       </c>
@@ -3700,7 +3707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>45138</v>
       </c>
@@ -3735,7 +3742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>45139</v>
       </c>
@@ -3770,7 +3777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>45139</v>
       </c>
@@ -3805,7 +3812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>45139</v>
       </c>
@@ -3840,7 +3847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>45139</v>
       </c>
@@ -3875,7 +3882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>45107</v>
       </c>
@@ -3910,7 +3917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>45107</v>
       </c>
@@ -3945,12 +3952,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G93" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>45140</v>
       </c>
@@ -3985,7 +3992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>45141</v>
       </c>
@@ -4020,7 +4027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>45141</v>
       </c>
@@ -4055,7 +4062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>45141</v>
       </c>
@@ -4090,7 +4097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>45141</v>
       </c>
@@ -4125,7 +4132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>45142</v>
       </c>
@@ -4160,7 +4167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <v>45145</v>
       </c>
@@ -4195,7 +4202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
         <v>45145</v>
       </c>
@@ -4230,7 +4237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
         <v>45145</v>
       </c>
@@ -4265,7 +4272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
         <v>45147</v>
       </c>
@@ -4296,7 +4303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
         <v>45147</v>
       </c>
@@ -4331,7 +4338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
         <v>45147</v>
       </c>
@@ -4366,7 +4373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
         <v>45149</v>
       </c>
@@ -4401,7 +4408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
         <v>45149</v>
       </c>
@@ -4436,7 +4443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
         <v>45149</v>
       </c>
@@ -4471,7 +4478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
         <v>45154</v>
       </c>
@@ -4506,7 +4513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
         <v>45152</v>
       </c>
@@ -4541,7 +4548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
         <v>45154</v>
       </c>
@@ -4576,7 +4583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
         <v>45154</v>
       </c>
@@ -4611,7 +4618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
         <v>45154</v>
       </c>
@@ -4646,7 +4653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
         <v>45157</v>
       </c>
@@ -4681,7 +4688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
         <v>45160</v>
       </c>
@@ -4716,7 +4723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
         <v>45160</v>
       </c>
@@ -4751,7 +4758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="6">
         <v>45161</v>
       </c>
@@ -4786,7 +4793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
         <v>45162</v>
       </c>
@@ -4821,7 +4828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
         <v>45162</v>
       </c>
@@ -4856,7 +4863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
         <v>45162</v>
       </c>
@@ -4891,7 +4898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="6">
         <v>45162</v>
       </c>
@@ -4926,7 +4933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
         <v>45162</v>
       </c>
@@ -4961,7 +4968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
         <v>45162</v>
       </c>
@@ -4996,7 +5003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
         <v>45162</v>
       </c>
@@ -5031,7 +5038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="6">
         <v>45162</v>
       </c>
@@ -5066,7 +5073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="6">
         <v>45163</v>
       </c>
@@ -5101,7 +5108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="6">
         <v>45164</v>
       </c>
@@ -5136,7 +5143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
         <v>45168</v>
       </c>
@@ -5171,7 +5178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="6">
         <v>45169</v>
       </c>
@@ -5206,7 +5213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="6">
         <v>45170</v>
       </c>
@@ -5241,7 +5248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="6">
         <v>45170</v>
       </c>
@@ -5276,7 +5283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="6">
         <v>45170</v>
       </c>
@@ -5311,7 +5318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="6">
         <v>45173</v>
       </c>
@@ -5346,12 +5353,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G134" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="6">
         <v>45173</v>
       </c>
@@ -5386,7 +5393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="6">
         <v>45173</v>
       </c>
@@ -5421,7 +5428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="6">
         <v>45173</v>
       </c>
@@ -5456,7 +5463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="6">
         <v>45173</v>
       </c>
@@ -5491,7 +5498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="6">
         <v>45173</v>
       </c>
@@ -5526,7 +5533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="6">
         <v>45173</v>
       </c>
@@ -5561,7 +5568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="6">
         <v>45173</v>
       </c>
@@ -5596,7 +5603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="6">
         <v>45173</v>
       </c>
@@ -5631,7 +5638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="6">
         <v>45173</v>
       </c>
@@ -5666,7 +5673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="6">
         <v>45173</v>
       </c>
@@ -5701,7 +5708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="6">
         <v>45173</v>
       </c>
@@ -5736,7 +5743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="6">
         <v>45173</v>
       </c>
@@ -5771,7 +5778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="6">
         <v>45173</v>
       </c>
@@ -5806,7 +5813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="6">
         <v>45173</v>
       </c>
@@ -5841,7 +5848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="6">
         <v>45173</v>
       </c>
@@ -5876,7 +5883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="6">
         <v>45175</v>
       </c>
@@ -5911,7 +5918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="6">
         <v>45175</v>
       </c>
@@ -5946,7 +5953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="6">
         <v>45177</v>
       </c>
@@ -5981,7 +5988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="6">
         <v>45177</v>
       </c>
@@ -6016,7 +6023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
         <v>45177</v>
       </c>
@@ -6051,7 +6058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
         <v>45179</v>
       </c>
@@ -6086,7 +6093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
         <v>45182</v>
       </c>
@@ -6121,7 +6128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="6">
         <v>45182</v>
       </c>
@@ -6156,7 +6163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="6">
         <v>45183</v>
       </c>
@@ -6191,7 +6198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="6">
         <v>45183</v>
       </c>
@@ -6226,7 +6233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
         <v>45187</v>
       </c>
@@ -6261,7 +6268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="6">
         <v>45189</v>
       </c>
@@ -6296,7 +6303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="6">
         <v>45190</v>
       </c>
@@ -6331,7 +6338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="6">
         <v>45190</v>
       </c>
@@ -6366,7 +6373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="6">
         <v>45190</v>
       </c>
@@ -6401,7 +6408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="6">
         <v>45190</v>
       </c>
@@ -6436,7 +6443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="6">
         <v>45195</v>
       </c>
@@ -6471,7 +6478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="6">
         <v>45195</v>
       </c>
@@ -6506,7 +6513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="6">
         <v>45195</v>
       </c>
@@ -6541,7 +6548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="6">
         <v>45199</v>
       </c>
@@ -6576,7 +6583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="6">
         <v>45202</v>
       </c>
@@ -6611,7 +6618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:11">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="6">
         <v>45203</v>
       </c>
@@ -6646,7 +6653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="6">
         <v>45205</v>
       </c>
@@ -6681,7 +6688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="6">
         <v>45208</v>
       </c>
@@ -6716,7 +6723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="6">
         <v>45210</v>
       </c>
@@ -6751,12 +6758,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G175" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="6">
         <v>45219</v>
       </c>
@@ -6791,7 +6798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="6">
         <v>45220</v>
       </c>
@@ -6826,7 +6833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:11">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="6">
         <v>45220</v>
       </c>
@@ -6861,7 +6868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:11">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="6">
         <v>45222</v>
       </c>
@@ -6896,7 +6903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="6">
         <v>45222</v>
       </c>
@@ -6931,7 +6938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:11">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="6">
         <v>45222</v>
       </c>
@@ -6966,7 +6973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:11">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="6">
         <v>45231</v>
       </c>
@@ -7001,7 +7008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:11">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="6">
         <v>45231</v>
       </c>
@@ -7036,7 +7043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:11">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="6">
         <v>45231</v>
       </c>
@@ -7071,7 +7078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="6">
         <v>45231</v>
       </c>
@@ -7106,7 +7113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:11">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="6">
         <v>45237</v>
       </c>
@@ -7141,7 +7148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:11">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="6">
         <v>45238</v>
       </c>
@@ -7176,7 +7183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:11">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="6">
         <v>45240</v>
       </c>
@@ -7211,7 +7218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:11">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="6">
         <v>45243</v>
       </c>
@@ -7246,7 +7253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:11">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="6">
         <v>45243</v>
       </c>
@@ -7281,7 +7288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="6">
         <v>45245</v>
       </c>
@@ -7316,7 +7323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="6">
         <v>45250</v>
       </c>
@@ -7351,7 +7358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="6">
         <v>45251</v>
       </c>
@@ -7386,7 +7393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="6">
         <v>45251</v>
       </c>
@@ -7421,7 +7428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="6">
         <v>45251</v>
       </c>
@@ -7456,7 +7463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="6">
         <v>45253</v>
       </c>
@@ -7491,7 +7498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="6">
         <v>45253</v>
       </c>
@@ -7526,7 +7533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="6">
         <v>45256</v>
       </c>
@@ -7561,7 +7568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="6">
         <v>45265</v>
       </c>
@@ -7596,7 +7603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="6">
         <v>45270</v>
       </c>
@@ -7631,7 +7638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="6">
         <v>45274</v>
       </c>
@@ -7666,7 +7673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="6">
         <v>45277</v>
       </c>
@@ -7701,7 +7708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="6">
         <v>45281</v>
       </c>
@@ -7736,7 +7743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="6">
         <v>45281</v>
       </c>
@@ -7771,7 +7778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="6">
         <v>45287</v>
       </c>
@@ -7806,7 +7813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="6">
         <v>45287</v>
       </c>
@@ -7841,7 +7848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="6">
         <v>45288</v>
       </c>
@@ -7876,7 +7883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="6">
         <v>45290</v>
       </c>
@@ -7911,7 +7918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:11">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="6">
         <v>45293</v>
       </c>
@@ -7946,7 +7953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:11">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="6">
         <v>45294</v>
       </c>
@@ -7981,7 +7988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:11">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="6">
         <v>45305</v>
       </c>
@@ -8016,7 +8023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:11">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="6">
         <v>45306</v>
       </c>
@@ -8051,7 +8058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:11">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="6">
         <v>45307</v>
       </c>
@@ -8086,7 +8093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:11">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="6">
         <v>45307</v>
       </c>
@@ -8121,7 +8128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:11">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="6">
         <v>45307</v>
       </c>
@@ -8156,12 +8163,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:11">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G216" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="217" spans="1:11">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="6">
         <v>45307</v>
       </c>
@@ -8196,7 +8203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:11">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="6">
         <v>45308</v>
       </c>
@@ -8225,7 +8232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:11">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="6">
         <v>45312</v>
       </c>
@@ -8260,7 +8267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:11">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="6">
         <v>45312</v>
       </c>
@@ -8295,7 +8302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:11">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="6">
         <v>45313</v>
       </c>
@@ -8330,7 +8337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:11">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="6">
         <v>45314</v>
       </c>
@@ -8365,7 +8372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:11">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="6">
         <v>45314</v>
       </c>
@@ -8400,7 +8407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:11">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="6">
         <v>45317</v>
       </c>
@@ -8435,7 +8442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:11">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="6">
         <v>45317</v>
       </c>
@@ -8470,7 +8477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:11">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="6">
         <v>45324</v>
       </c>
@@ -8505,7 +8512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:11">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="6">
         <v>45324</v>
       </c>
@@ -8540,7 +8547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:11">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="6">
         <v>45326</v>
       </c>
@@ -8575,7 +8582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:11">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="6">
         <v>45327</v>
       </c>
@@ -8606,7 +8613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:11">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="6">
         <v>45329</v>
       </c>
@@ -8641,7 +8648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:11">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="6">
         <v>45330</v>
       </c>
@@ -8676,7 +8683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:11">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="6">
         <v>45333</v>
       </c>
@@ -8711,7 +8718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:11">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="6">
         <v>45336</v>
       </c>
@@ -8746,7 +8753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:11">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="6">
         <v>45338</v>
       </c>
@@ -8781,7 +8788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:11">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="6">
         <v>45341</v>
       </c>
@@ -8816,7 +8823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:11">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="6">
         <v>45341</v>
       </c>
@@ -8851,7 +8858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:11">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="6">
         <v>45342</v>
       </c>
@@ -8886,7 +8893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:11">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="6">
         <v>45343</v>
       </c>
@@ -8921,7 +8928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:11">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="6">
         <v>45343</v>
       </c>
@@ -8956,7 +8963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:11">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="6">
         <v>45344</v>
       </c>
@@ -8991,7 +8998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:11">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="6">
         <v>45344</v>
       </c>
@@ -9026,7 +9033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:11">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="6">
         <v>45344</v>
       </c>
@@ -9061,7 +9068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:11">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="6">
         <v>45344</v>
       </c>
@@ -9096,7 +9103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:11">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="6">
         <v>45356</v>
       </c>
@@ -9131,7 +9138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:11">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="6">
         <v>45362</v>
       </c>
@@ -9166,7 +9173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:11">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="6">
         <v>45364</v>
       </c>
@@ -9201,7 +9208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:11">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="6">
         <v>45366</v>
       </c>
@@ -9232,7 +9239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:11">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="6">
         <v>45366</v>
       </c>
@@ -9267,7 +9274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:11">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="6">
         <v>45369</v>
       </c>
@@ -9302,7 +9309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:11">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="6">
         <v>45374</v>
       </c>
@@ -9337,7 +9344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:11">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="6">
         <v>45374</v>
       </c>
@@ -9372,7 +9379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:11">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="6">
         <v>45376</v>
       </c>
@@ -9407,7 +9414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:11">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="6">
         <v>45376</v>
       </c>
@@ -9442,7 +9449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:11">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="6">
         <v>45382</v>
       </c>
@@ -9477,7 +9484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:11">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="6">
         <v>45384</v>
       </c>
@@ -9512,7 +9519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:11">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="6">
         <v>45385</v>
       </c>
@@ -9547,12 +9554,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:11">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G257" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="258" spans="1:11">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="6">
         <v>45387</v>
       </c>
@@ -9587,7 +9594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:11">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="6">
         <v>45390</v>
       </c>
@@ -9622,7 +9629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:11">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="6">
         <v>45391</v>
       </c>
@@ -9657,7 +9664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:11">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="6">
         <v>45394</v>
       </c>
@@ -9692,7 +9699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:11">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="6">
         <v>45396</v>
       </c>
@@ -9727,7 +9734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:11">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="6">
         <v>45398</v>
       </c>
@@ -9762,7 +9769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:11">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="6">
         <v>45399</v>
       </c>
@@ -9797,7 +9804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:11">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="6">
         <v>45403</v>
       </c>
@@ -9832,7 +9839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:11">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="6">
         <v>45404</v>
       </c>
@@ -9867,7 +9874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:11">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="6">
         <v>45404</v>
       </c>
@@ -9902,7 +9909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:11">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="6">
         <v>45404</v>
       </c>
@@ -9937,7 +9944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:11">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="6">
         <v>45407</v>
       </c>
@@ -9972,7 +9979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:11">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="6">
         <v>45409</v>
       </c>
@@ -10007,7 +10014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:11">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="6">
         <v>45409</v>
       </c>
@@ -10042,7 +10049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:11">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="6">
         <v>45410</v>
       </c>
@@ -10077,7 +10084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:11">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="6">
         <v>45410</v>
       </c>
@@ -10112,7 +10119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:11">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="6">
         <v>45411</v>
       </c>
@@ -10147,7 +10154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:11">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="6">
         <v>45412</v>
       </c>
@@ -10182,7 +10189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:11">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="6">
         <v>45412</v>
       </c>
@@ -10217,7 +10224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:11">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="6">
         <v>45413</v>
       </c>
@@ -10252,7 +10259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:11">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="6">
         <v>45414</v>
       </c>
@@ -10287,7 +10294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:11">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="6">
         <v>45421</v>
       </c>
@@ -10322,7 +10329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:11">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="6">
         <v>45423</v>
       </c>
@@ -10357,7 +10364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:11">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="6">
         <v>45423</v>
       </c>
@@ -10392,7 +10399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:11">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="6">
         <v>45424</v>
       </c>
@@ -10427,7 +10434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:11">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="6">
         <v>45435</v>
       </c>
@@ -10458,7 +10465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:11">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="6">
         <v>45442</v>
       </c>
@@ -10493,7 +10500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:11">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="6">
         <v>45446</v>
       </c>
@@ -10528,7 +10535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:11">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="6">
         <v>45448</v>
       </c>
@@ -10563,7 +10570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:11">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="6">
         <v>45454</v>
       </c>
@@ -10598,7 +10605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:11">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="6">
         <v>45455</v>
       </c>
@@ -10633,7 +10640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:11">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="6">
         <v>45455</v>
       </c>
@@ -10668,7 +10675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:11">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="6">
         <v>45456</v>
       </c>
@@ -10703,7 +10710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:11">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="6">
         <v>45456</v>
       </c>
@@ -10738,7 +10745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:11">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="6">
         <v>45456</v>
       </c>
@@ -10773,7 +10780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:11">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="6">
         <v>45457</v>
       </c>
@@ -10808,7 +10815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:11">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="6">
         <v>45461</v>
       </c>
@@ -10843,7 +10850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:11">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="6">
         <v>45462</v>
       </c>
@@ -10878,7 +10885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:11">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="6">
         <v>45470</v>
       </c>
@@ -10913,7 +10920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:11">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="6">
         <v>45470</v>
       </c>
@@ -10948,12 +10955,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:11">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G298" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="299" spans="1:11">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="6">
         <v>45471</v>
       </c>
@@ -10988,7 +10995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:11">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="6">
         <v>45471</v>
       </c>
@@ -11023,7 +11030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:11">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="6">
         <v>45471</v>
       </c>
@@ -11058,7 +11065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:11">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="6">
         <v>45472</v>
       </c>
@@ -11093,7 +11100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:11">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="6">
         <v>45474</v>
       </c>
@@ -11128,7 +11135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:11">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="6">
         <v>45474</v>
       </c>
@@ -11163,7 +11170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:11">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="6">
         <v>45477</v>
       </c>
@@ -11198,7 +11205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:11">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="6">
         <v>45484</v>
       </c>
@@ -11233,7 +11240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:11">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="6">
         <v>45484</v>
       </c>
@@ -11268,7 +11275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:11">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="6">
         <v>45487</v>
       </c>
@@ -11303,7 +11310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:11">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="6">
         <v>45488</v>
       </c>
@@ -11338,7 +11345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:11">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="6">
         <v>45494</v>
       </c>
@@ -11373,7 +11380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:11">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="6">
         <v>45497</v>
       </c>
@@ -11408,7 +11415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:11">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="6">
         <v>45497</v>
       </c>
@@ -11443,7 +11450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:11">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="6">
         <v>45502</v>
       </c>
@@ -11478,7 +11485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:11">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="6">
         <v>45503</v>
       </c>
@@ -11513,7 +11520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:11">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="6">
         <v>45504</v>
       </c>
@@ -11548,7 +11555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:11">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="6">
         <v>45510</v>
       </c>
@@ -11583,7 +11590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:11">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="6">
         <v>45511</v>
       </c>
@@ -11618,7 +11625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:11">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="6">
         <v>45515</v>
       </c>
@@ -11649,7 +11656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:11">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="6">
         <v>45517</v>
       </c>
@@ -11684,7 +11691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:11">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="6">
         <v>45520</v>
       </c>
@@ -11719,7 +11726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:11">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="6">
         <v>45523</v>
       </c>
@@ -11754,7 +11761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:11">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="6">
         <v>45524</v>
       </c>
@@ -11789,7 +11796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:11">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="6">
         <v>45524</v>
       </c>
@@ -11824,7 +11831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:11">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="6">
         <v>45525</v>
       </c>
@@ -11859,7 +11866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:11">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="6">
         <v>45525</v>
       </c>
@@ -11894,7 +11901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:11">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="6">
         <v>45525</v>
       </c>
@@ -11929,7 +11936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:11">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="6">
         <v>45527</v>
       </c>
@@ -11964,7 +11971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:11">
+    <row r="328" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A328" s="6">
         <v>45527</v>
       </c>
@@ -11999,7 +12006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:11">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="6">
         <v>45529</v>
       </c>
@@ -12034,7 +12041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:11">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="6">
         <v>45530</v>
       </c>
@@ -12069,7 +12076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:11">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="6">
         <v>45530</v>
       </c>
@@ -12104,7 +12111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:11">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="6">
         <v>45531</v>
       </c>
@@ -12139,7 +12146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:11">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="6">
         <v>45532</v>
       </c>
@@ -12174,7 +12181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:11">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="6">
         <v>45532</v>
       </c>
@@ -12209,7 +12216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:11">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="6">
         <v>45533</v>
       </c>
@@ -12244,7 +12251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:11">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="6">
         <v>45534</v>
       </c>
@@ -12279,7 +12286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:11">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="6">
         <v>45537</v>
       </c>
@@ -12314,7 +12321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:11">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="6">
         <v>45538</v>
       </c>
@@ -12349,12 +12356,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:11">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G339" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="340" spans="1:11">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="6">
         <v>45538</v>
       </c>
@@ -12389,7 +12396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:11">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="6">
         <v>45538</v>
       </c>
@@ -12424,7 +12431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:11">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="6">
         <v>45543</v>
       </c>
@@ -12459,7 +12466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:11">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="6">
         <v>45547</v>
       </c>
@@ -12494,7 +12501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:11">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="6">
         <v>45547</v>
       </c>
@@ -12529,7 +12536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:11">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="6">
         <v>45547</v>
       </c>
@@ -12564,7 +12571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:11">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="6">
         <v>45547</v>
       </c>
@@ -12599,7 +12606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:11">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="6">
         <v>45547</v>
       </c>
@@ -12634,7 +12641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:11">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="6">
         <v>45547</v>
       </c>
@@ -12669,7 +12676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:11">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="6">
         <v>45548</v>
       </c>
@@ -12704,7 +12711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:11">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="6">
         <v>45551</v>
       </c>
@@ -12739,7 +12746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:11">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="6">
         <v>45557</v>
       </c>
@@ -12774,7 +12781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:11">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="6">
         <v>45560</v>
       </c>
@@ -12809,7 +12816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:11">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="6">
         <v>45560</v>
       </c>
@@ -12844,7 +12851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:11">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="6">
         <v>45563</v>
       </c>
@@ -12879,7 +12886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:11">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="6">
         <v>45565</v>
       </c>
@@ -12914,7 +12921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:11">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="6">
         <v>45565</v>
       </c>
@@ -12949,7 +12956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:11">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="6">
         <v>45578</v>
       </c>
@@ -12984,7 +12991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:11">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="6">
         <v>45578</v>
       </c>
@@ -13019,7 +13026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:11">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="6">
         <v>45581</v>
       </c>
@@ -13054,7 +13061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:11">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="6">
         <v>45599</v>
       </c>
@@ -13089,7 +13096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:11">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="6">
         <v>45613</v>
       </c>
@@ -13124,7 +13131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:11">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="6">
         <v>45613</v>
       </c>
@@ -13159,7 +13166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:11">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="6">
         <v>45622</v>
       </c>
@@ -13194,7 +13201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:11">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="6">
         <v>45622</v>
       </c>
@@ -13229,7 +13236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:11">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="6">
         <v>45625</v>
       </c>
@@ -13264,7 +13271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:11">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="6">
         <v>45634</v>
       </c>
@@ -13299,7 +13306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:11">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="6">
         <v>45633</v>
       </c>
@@ -13334,7 +13341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:11">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="6">
         <v>45638</v>
       </c>
@@ -13369,7 +13376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:11">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="6">
         <v>45641</v>
       </c>
@@ -13404,7 +13411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:11">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="6">
         <v>45649</v>
       </c>
@@ -13439,7 +13446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:11">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="6">
         <v>45649</v>
       </c>
@@ -13474,7 +13481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:11">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="6">
         <v>45655</v>
       </c>
@@ -13509,7 +13516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:11">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="6">
         <v>45626</v>
       </c>
@@ -13544,7 +13551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:11">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="6">
         <v>45657</v>
       </c>
@@ -13579,7 +13586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:11">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
         <v>152</v>
       </c>
